--- a/biology/Médecine/1531_en_santé_et_médecine/1531_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1531_en_santé_et_médecine/1531_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1531_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1531_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1531 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1531_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1531_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>26 janvier : au Portugal, un tremblement de terre fait des milliers de victimes à Lisbonne[1].
-30 mars : en Angleterre, Beggars Act, loi sur la mendicité et le vagabondage[2].
-L'hospice Sainte-Catherine de Lyon, fondé vers l'an 1200 pour recevoir les orphelines, est placé sous la juridiction de l'Aumône générale[3].
-1531-1533 : en France, les consuls de Lyon fondent une « aumône générale, origine de l'hôpital de la Charité[4],[5] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>26 janvier : au Portugal, un tremblement de terre fait des milliers de victimes à Lisbonne.
+30 mars : en Angleterre, Beggars Act, loi sur la mendicité et le vagabondage.
+L'hospice Sainte-Catherine de Lyon, fondé vers l'an 1200 pour recevoir les orphelines, est placé sous la juridiction de l'Aumône générale.
+1531-1533 : en France, les consuls de Lyon fondent une « aumône générale, origine de l'hôpital de la Charité, ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1531_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1531_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1531-1535 : Paracelse (1493-1541) compose son Opus paramirum où, comme dans le Textus paramiri (resté inachevé en 1520) ou dans le Paragranum (terminé en 1530), l'auteur développe ses idées « sur les rapports entre l'alchimie et les autres sciences, au premier rang desquelles se trouve la médecine[6] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1531-1535 : Paracelse (1493-1541) compose son Opus paramirum où, comme dans le Textus paramiri (resté inachevé en 1520) ou dans le Paragranum (terminé en 1530), l'auteur développe ses idées « sur les rapports entre l'alchimie et les autres sciences, au premier rang desquelles se trouve la médecine ».</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1531_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1531_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1er juin : Johannes Sambucus (János Zsámboky) (mort en 1584), médecin, philologue, humaniste, historien, poète, collectionneur d'œuvres d'art et mécène hongrois[7],[8].
-26 septembre : Antonio Minutoli (it) (mort en 1606 ou 1610), médecin italien[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er juin : Johannes Sambucus (János Zsámboky) (mort en 1584), médecin, philologue, humaniste, historien, poète, collectionneur d'œuvres d'art et mécène hongrois,.
+26 septembre : Antonio Minutoli (it) (mort en 1606 ou 1610), médecin italien.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1531_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1531_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant octobre : Jacques Muyssart (né vers  1465), médecin de l'hospice Comtesse et de la ville de Lille[10],[11],[12].
-Tommaso da Vico (it) (né à une date inconnue), médecin de Vérone[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant octobre : Jacques Muyssart (né vers  1465), médecin de l'hospice Comtesse et de la ville de Lille.
+Tommaso da Vico (it) (né à une date inconnue), médecin de Vérone.
 </t>
         </is>
       </c>
